--- a/biology/Zoologie/Actias_selene/Actias_selene.xlsx
+++ b/biology/Zoologie/Actias_selene/Actias_selene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papillon lune indien, Papillon lune chinois
-Actias selene est une espèce de papillons de la famille des Saturniidae, dont le nom vernaculaire est Papillon lune indien (ou chinois)[1],[2]. Il est populaire chez les entomologistes amateurs ou dans certaines fermes à papillons qui en achètent des œufs ou des cocons pour les faire éclore. Ce type de pratique pouvant être une menace si les individus sont prélevés dans la nature.
+Actias selene est une espèce de papillons de la famille des Saturniidae, dont le nom vernaculaire est Papillon lune indien (ou chinois),. Il est populaire chez les entomologistes amateurs ou dans certaines fermes à papillons qui en achètent des œufs ou des cocons pour les faire éclore. Ce type de pratique pouvant être une menace si les individus sont prélevés dans la nature.
 Cependant, l'élevage est très aisé sur nombre de plantes hôtes.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce plutôt nocturne est spectaculaire car elle peut atteindre de 13 à 14 cm d'envergure, mais surtout parce qu'elle possède des ailes antérieures terminées par un apex fort aigu et des ailes antérieures allongées, terminées par une très longue queue incurvée vers l'extérieur. Les quatre ailes présentent un bord jaunâtre avec un ocelle caractéristique, comme une demi-lune. Le bord d'attaque de la première paire d'ailes est de couleur pourpre foncé.
 Le mâle possède des antennes plumeuses. La femelle a une corpulence plus importante. L'adulte ne se nourrit pas.
@@ -546,7 +560,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Asie ; de l'Inde au Japon et plus au sud, du Népal, Ceylan à Bornéo, et dans certaines îles ou archipels d'Asie orientale.
 Quelques sous-espèces vivent au Pakistan, en Afghanistan, aux Philippines, en Extrême-Orient russe, en Chine, à Java, au Sri Lanka, à Sumatra et à Bornéo.
@@ -578,7 +594,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chenille au 1er stade larvaire
@@ -621,7 +639,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce s'élève sur quantités de plantes, dont celles-ci : rhododendron, noyer, liquidambar, pommier, prunier, cerisier, bouleau, saule.
 L'élevage sur troène ne fonctionne pas bien, les chenilles ne s'alimentant pas.
